--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOWNLOADS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
   <si>
     <t>KODE BUKU</t>
   </si>
@@ -51,41 +56,188 @@
     <t>HARGA LUAR JAWA</t>
   </si>
   <si>
-    <t>terbit_10001</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>4 Warna</t>
-  </si>
-  <si>
-    <t>SMA/MA</t>
-  </si>
-  <si>
-    <t>BUK990</t>
-  </si>
-  <si>
-    <t>AdaIB</t>
-  </si>
-  <si>
     <t>TIPE</t>
   </si>
   <si>
+    <t>M13H713001</t>
+  </si>
+  <si>
+    <t>TEMA1-DIRIKU-SD1</t>
+  </si>
+  <si>
+    <t>M13H713002</t>
+  </si>
+  <si>
+    <t>TEMA2-KEGEMARANKU-SD1</t>
+  </si>
+  <si>
+    <t>M13H713003</t>
+  </si>
+  <si>
+    <t>TEMA3-KEGIATANKU-SD1</t>
+  </si>
+  <si>
+    <t>M13H713004</t>
+  </si>
+  <si>
+    <t>TEMA4-KELUARGAKU-SD1</t>
+  </si>
+  <si>
+    <t>M13H713005</t>
+  </si>
+  <si>
+    <t>TEMA5-PENGALAMANKU-SD1</t>
+  </si>
+  <si>
+    <t>M13H713006</t>
+  </si>
+  <si>
+    <t>TEMA6-LINGK.BERSIH,SEHAT&amp;ASRI-SD1</t>
+  </si>
+  <si>
+    <t>M13H713007</t>
+  </si>
+  <si>
+    <t>TEMA7-BENDA,HEWAN&amp;TANAMAN DI SEKITARKU-SD1</t>
+  </si>
+  <si>
+    <t>M13H713008</t>
+  </si>
+  <si>
+    <t>TEMA8-PERISTIWA ALAM-SD1</t>
+  </si>
+  <si>
+    <t>M13H713025</t>
+  </si>
+  <si>
+    <t>TEMA1-INDAHNYA KEBERSAMAAN-SD4</t>
+  </si>
+  <si>
+    <t>M13H713026</t>
+  </si>
+  <si>
+    <t>TEMA2-SELALU BERHEMAT ENERGI-SD4</t>
+  </si>
+  <si>
+    <t>M13H713027</t>
+  </si>
+  <si>
+    <t>TEMA3-PEDULI TERHADAP LINGKUNGAN-SD4</t>
+  </si>
+  <si>
+    <t>M13H713028</t>
+  </si>
+  <si>
+    <t>TEMA4-BERBAGAI PEKERJAAN-SD4</t>
+  </si>
+  <si>
+    <t>M13H713029</t>
+  </si>
+  <si>
+    <t>TEMA5-PAHLAWANKU-SD4</t>
+  </si>
+  <si>
+    <t>M13H713030</t>
+  </si>
+  <si>
+    <t>TEMA6-CITA-CITAKU-SD4</t>
+  </si>
+  <si>
+    <t>M13H713031</t>
+  </si>
+  <si>
+    <t>TEMA7-INDAHNYA KEBERAGAMAN DI NEGERIKU-SD4</t>
+  </si>
+  <si>
+    <t>M13H713032</t>
+  </si>
+  <si>
+    <t>TEMA8-DAERAH TEMPAT TINGGALKU-SD4</t>
+  </si>
+  <si>
+    <t>M13H713033</t>
+  </si>
+  <si>
+    <t>TEMA9-KAYANYA NEGERIKU-SD4</t>
+  </si>
+  <si>
+    <t>M13P713001</t>
+  </si>
+  <si>
+    <t>M13P713002</t>
+  </si>
+  <si>
+    <t>M13P713003</t>
+  </si>
+  <si>
+    <t>M13P713004</t>
+  </si>
+  <si>
+    <t>M13P713005</t>
+  </si>
+  <si>
+    <t>M13P713006</t>
+  </si>
+  <si>
+    <t>M13P713007</t>
+  </si>
+  <si>
+    <t>M13P713008</t>
+  </si>
+  <si>
+    <t>M13P713025</t>
+  </si>
+  <si>
+    <t>M13P713026</t>
+  </si>
+  <si>
+    <t>M13P713027</t>
+  </si>
+  <si>
+    <t>M13P713028</t>
+  </si>
+  <si>
+    <t>M13P713029</t>
+  </si>
+  <si>
+    <t>M13P713030</t>
+  </si>
+  <si>
+    <t>M13P713031</t>
+  </si>
+  <si>
+    <t>M13P713032</t>
+  </si>
+  <si>
+    <t>M13P713033</t>
+  </si>
+  <si>
+    <t>PNB_0001</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PG-MT-SD</t>
+  </si>
+  <si>
     <t>MATERI</t>
+  </si>
+  <si>
+    <t>BUKU GURU</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +245,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +274,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +307,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +624,7 @@
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -477,46 +662,1301 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2">
+        <v>2013</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2">
+        <v>70000</v>
+      </c>
+      <c r="L2">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3">
+        <v>2013</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3">
+        <v>70000</v>
+      </c>
+      <c r="L3">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4">
+        <v>2013</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4">
+        <v>70000</v>
+      </c>
+      <c r="L4">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5">
+        <v>2013</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5">
+        <v>70000</v>
+      </c>
+      <c r="L5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>2013</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6">
+        <v>70000</v>
+      </c>
+      <c r="L6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7">
+        <v>2013</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>70000</v>
+      </c>
+      <c r="L7">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8">
+        <v>2013</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
+        <v>70000</v>
+      </c>
+      <c r="L8">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9">
+        <v>2013</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9">
+        <v>70000</v>
+      </c>
+      <c r="L9">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10">
+        <v>2013</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10">
+        <v>70000</v>
+      </c>
+      <c r="L10">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11">
+        <v>2013</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
+        <v>70000</v>
+      </c>
+      <c r="L11">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>2013</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12">
+        <v>70000</v>
+      </c>
+      <c r="L12">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <v>2013</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13">
+        <v>70000</v>
+      </c>
+      <c r="L13">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14">
+        <v>2013</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>70000</v>
+      </c>
+      <c r="L14">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15">
+        <v>2013</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15">
+        <v>70000</v>
+      </c>
+      <c r="L15">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>2013</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16">
+        <v>70000</v>
+      </c>
+      <c r="L16">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <v>2013</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17">
+        <v>70000</v>
+      </c>
+      <c r="L17">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18">
+        <v>2013</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18">
+        <v>70000</v>
+      </c>
+      <c r="L18">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>2013</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19">
+        <v>2013</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19">
+        <v>50000</v>
+      </c>
+      <c r="L19">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
-        <v>9000</v>
-      </c>
-      <c r="L2">
-        <v>10000</v>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20">
+        <v>2013</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20">
+        <v>50000</v>
+      </c>
+      <c r="L20">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21">
+        <v>2013</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21">
+        <v>50000</v>
+      </c>
+      <c r="L21">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22">
+        <v>2013</v>
+      </c>
+      <c r="I22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22">
+        <v>50000</v>
+      </c>
+      <c r="L22">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23">
+        <v>2013</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23">
+        <v>50000</v>
+      </c>
+      <c r="L23">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <v>2013</v>
+      </c>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24">
+        <v>50000</v>
+      </c>
+      <c r="L24">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25">
+        <v>2013</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25">
+        <v>50000</v>
+      </c>
+      <c r="L25">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26">
+        <v>2013</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26">
+        <v>50000</v>
+      </c>
+      <c r="L26">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27">
+        <v>2013</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27">
+        <v>50000</v>
+      </c>
+      <c r="L27">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28">
+        <v>2013</v>
+      </c>
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28">
+        <v>50000</v>
+      </c>
+      <c r="L28">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29">
+        <v>2013</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29">
+        <v>50000</v>
+      </c>
+      <c r="L29">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30">
+        <v>2013</v>
+      </c>
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30">
+        <v>50000</v>
+      </c>
+      <c r="L30">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31">
+        <v>2013</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31">
+        <v>50000</v>
+      </c>
+      <c r="L31">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>2013</v>
+      </c>
+      <c r="I32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>50000</v>
+      </c>
+      <c r="L32">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33">
+        <v>2013</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>50000</v>
+      </c>
+      <c r="L33">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34">
+        <v>2013</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34">
+        <v>50000</v>
+      </c>
+      <c r="L34">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35">
+        <v>2013</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>50000</v>
+      </c>
+      <c r="L35">
+        <v>55000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
